--- a/эпиляция.xlsx
+++ b/эпиляция.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>живот (полностью)</t>
   </si>
@@ -41,9 +41,6 @@
     <t>предплечья</t>
   </si>
   <si>
-    <t>подмышки + глубокое бикини + голени</t>
-  </si>
-  <si>
     <t>кисти</t>
   </si>
   <si>
@@ -69,13 +66,22 @@
   </si>
   <si>
     <t>Operation</t>
+  </si>
+  <si>
+    <t>ноги (полностью)</t>
+  </si>
+  <si>
+    <t>бикини (глубокое)</t>
+  </si>
+  <si>
+    <t>щеки</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,8 +97,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="SF Pro Display"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,38 +112,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -159,22 +149,20 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -455,13 +443,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="L8" sqref="G1:L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" customWidth="1"/>
@@ -469,159 +457,181 @@
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75">
+      <c r="A2" s="7">
+        <v>65</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75">
+      <c r="A3" s="12">
+        <v>32</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75">
+      <c r="A4" s="8">
+        <v>7</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75">
+      <c r="A5" s="8">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75">
+      <c r="A6" s="8">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75">
+      <c r="A7" s="8">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="3" customFormat="1" ht="15.75">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="15.75">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="16.5" thickBot="1">
+      <c r="A10" s="9">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75">
+      <c r="A11" s="10">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
+        <f>SUM(D2:D10)</f>
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
-        <v>68</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>30</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>19</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>19</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="4">
-        <v>1</v>
-      </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-    </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5">
-        <f>SUM(D2:D8)</f>
+    </row>
+    <row r="12" spans="1:12" ht="15.75">
+      <c r="A12" s="8"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.75">
+      <c r="A13" s="8">
+        <f>SUM(A2:A7)</f>
+        <v>172</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <f>SUM(A2:A5)</f>
-        <v>136</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="14" spans="1:12" ht="15.75">
+      <c r="A14" s="8">
+        <f>A13-A13/10</f>
+        <v>154.80000000000001</v>
+      </c>
+      <c r="B14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <f>A11-A11/10</f>
-        <v>122.4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <f>A12+A9</f>
-        <v>134.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+    <row r="15" spans="1:12" ht="15.75">
+      <c r="A15" s="8"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75">
+      <c r="A16" s="8">
+        <f>A14+A11</f>
+        <v>166.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75">
+      <c r="A17" s="8"/>
+    </row>
+    <row r="27" spans="1:2" ht="15.75">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
